--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>Users</t>
   </si>
@@ -584,21 +584,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,7 +903,7 @@
   <dimension ref="D4:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,395 +920,416 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="7"/>
+      <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="L8" s="7"/>
+      <c r="N8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="F29" s="7"/>
+      <c r="H29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="K29" s="5" t="s">
+      <c r="I29" s="7"/>
+      <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="N29" s="4" t="s">
+      <c r="L29" s="7"/>
+      <c r="N29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="3"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="6" t="s">
+      <c r="L30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="K35" s="7" t="s">
+      <c r="I35" s="7"/>
+      <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -1318,9 +1339,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Users</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Roles</t>
+  </si>
+  <si>
+    <t>Services: đổi lại thành id_service, name,bool, icon,mô tả</t>
   </si>
 </sst>
 </file>
@@ -587,9 +590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,6 +597,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,30 +923,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="5"/>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="7" t="s">
+      <c r="L8" s="6"/>
+      <c r="N8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1086,16 +1089,16 @@
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
@@ -1114,22 +1117,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="H29" s="7" t="s">
+      <c r="F29" s="6"/>
+      <c r="H29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="K29" s="7" t="s">
+      <c r="I29" s="6"/>
+      <c r="K29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="N29" s="5" t="s">
+      <c r="L29" s="6"/>
+      <c r="N29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1244,10 +1247,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1318,6 +1321,9 @@
       </c>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1327,11 +1333,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D8:E8"/>
@@ -1339,6 +1340,11 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -334,12 +334,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quang Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Khi thêm 1 services thì đồng thời phải quét bảng Plans, có bao nhiêu id_plan quét được thì phải thêm vào bảng ServicesOfPlans kèm với id_service mới thêm trong bảng Services</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>Users</t>
   </si>
@@ -488,7 +512,28 @@
     <t>Roles</t>
   </si>
   <si>
-    <t>Services: đổi lại thành id_service, name,bool, icon,mô tả</t>
+    <t>Services: đổi lại thành id_service, name, icon</t>
+  </si>
+  <si>
+    <t>ServicesofPlans</t>
+  </si>
+  <si>
+    <t>has_service</t>
+  </si>
+  <si>
+    <t>Services(Bỏ)</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
+  </si>
+  <si>
+    <t>default: false</t>
+  </si>
+  <si>
+    <t>allow null</t>
   </si>
 </sst>
 </file>
@@ -558,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -581,27 +626,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,6 +671,246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="7715250"/>
+          <a:ext cx="704850" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8362950" y="5495925"/>
+          <a:ext cx="704850" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="2867025"/>
+          <a:ext cx="1047750" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7934325" y="1428750"/>
+          <a:ext cx="1095375" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7248525" y="2857500"/>
+          <a:ext cx="28575" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:O40"/>
+  <dimension ref="D4:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,30 +1220,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="7"/>
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="4"/>
+      <c r="N8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1089,16 +1386,16 @@
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
@@ -1117,22 +1414,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="K29" s="6" t="s">
+      <c r="I29" s="4"/>
+      <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="N29" s="4" t="s">
+      <c r="L29" s="4"/>
+      <c r="N29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1247,10 +1544,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="4"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1277,6 +1574,9 @@
       <c r="L36" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M36" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1331,8 +1631,83 @@
         <v>11</v>
       </c>
     </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D8:E8"/>
@@ -1340,15 +1715,11 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -310,6 +310,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quang Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Phụ kiện Kèm Theo Plan</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H38" authorId="0">
       <text>
         <r>
@@ -363,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>Users</t>
   </si>
@@ -534,13 +558,22 @@
   </si>
   <si>
     <t>allow null</t>
+  </si>
+  <si>
+    <t>AccessoriesofPlans</t>
+  </si>
+  <si>
+    <t>has_accessory</t>
+  </si>
+  <si>
+    <t>Accessories(Bỏ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +608,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -641,24 +682,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,6 +929,100 @@
         <a:xfrm flipH="1">
           <a:off x="7248525" y="2857500"/>
           <a:ext cx="28575" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="5457825"/>
+          <a:ext cx="695325" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="6753225"/>
+          <a:ext cx="85725" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1202,48 +1340,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="6"/>
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="L8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1386,16 +1524,16 @@
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K20" s="2" t="s">
@@ -1414,22 +1552,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="F29" s="5"/>
+      <c r="H29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="K29" s="4" t="s">
+      <c r="I29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="N29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="7"/>
+      <c r="L29" s="5"/>
+      <c r="N29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1544,10 +1682,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="5"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1568,15 +1706,19 @@
       <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="L36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="N36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1591,10 +1733,19 @@
       <c r="I37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1611,6 +1762,12 @@
       <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H39" s="1" t="s">
@@ -1632,10 +1789,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -1644,10 +1801,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="N42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -1662,6 +1823,12 @@
       <c r="I43" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
@@ -1676,6 +1843,12 @@
       <c r="I44" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
@@ -1687,6 +1860,12 @@
       <c r="J45" t="s">
         <v>55</v>
       </c>
+      <c r="N45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H46" s="1" t="s">
@@ -1700,12 +1879,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
+  <mergeCells count="16">
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -1715,6 +1889,13 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
   <si>
     <t>Users</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>Accessories(Bỏ)</t>
+  </si>
+  <si>
+    <t>Album này có những dịch vụ nào</t>
+  </si>
+  <si>
+    <t>Dịch Vụ này cho những album nào</t>
   </si>
 </sst>
 </file>
@@ -688,21 +694,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,22 +1372,22 @@
       <c r="J4" s="8"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="10"/>
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="L8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1530,12 +1536,15 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1544,6 +1553,9 @@
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1552,22 +1564,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="F29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="K29" s="5" t="s">
+      <c r="I29" s="11"/>
+      <c r="K29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="N29" s="7" t="s">
+      <c r="L29" s="11"/>
+      <c r="N29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1682,10 +1694,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="11"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1706,19 +1718,19 @@
       <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="6"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1733,10 +1745,10 @@
       <c r="I37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="4" t="s">
@@ -1789,10 +1801,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -1801,14 +1813,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="N42" s="5" t="s">
+      <c r="I42" s="11"/>
+      <c r="N42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -1880,6 +1892,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -1889,13 +1908,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>Users</t>
   </si>
@@ -539,9 +539,6 @@
     <t>Services: đổi lại thành id_service, name, icon</t>
   </si>
   <si>
-    <t>ServicesofPlans</t>
-  </si>
-  <si>
     <t>has_service</t>
   </si>
   <si>
@@ -573,6 +570,12 @@
   </si>
   <si>
     <t>Dịch Vụ này cho những album nào</t>
+  </si>
+  <si>
+    <t>ServicesofAlbums</t>
+  </si>
+  <si>
+    <t>ServicesofPlans(bỏ)</t>
   </si>
 </sst>
 </file>
@@ -697,16 +700,16 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -725,100 +728,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="7715250"/>
-          <a:ext cx="704850" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8362950" y="5495925"/>
-          <a:ext cx="704850" cy="2600325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1029,6 +938,102 @@
         <a:xfrm>
           <a:off x="11610975" y="6753225"/>
           <a:ext cx="85725" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2376489" y="5329240"/>
+          <a:ext cx="2724147" cy="1952624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 93357"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5534025" y="2038350"/>
+          <a:ext cx="590550" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1346,15 +1351,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1364,30 +1369,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="E8" s="9"/>
+      <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1530,20 +1535,20 @@
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -1554,7 +1559,7 @@
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>34</v>
@@ -1563,23 +1568,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11" t="s">
+      <c r="E29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="K29" s="11" t="s">
+      <c r="I29" s="8"/>
+      <c r="K29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="N29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" s="10"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1694,10 +1737,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="8"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1725,12 +1768,12 @@
         <v>8</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1752,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>39</v>
@@ -1801,10 +1844,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -1813,14 +1856,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="N42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O42" s="11"/>
+      <c r="H42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="N42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="8"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -1844,7 +1887,7 @@
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -1864,16 +1907,16 @@
     </row>
     <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>27</v>
@@ -1887,18 +1930,11 @@
         <v>9</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
+  <mergeCells count="17">
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -1908,6 +1944,14 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -700,16 +700,16 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1352,7 +1352,7 @@
   <dimension ref="D4:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,30 +1369,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="10"/>
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="L8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1535,16 +1535,16 @@
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
@@ -1569,10 +1569,10 @@
       </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F23" s="2" t="s">
@@ -1607,22 +1607,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="H29" s="8" t="s">
+      <c r="F29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="K29" s="8" t="s">
+      <c r="I29" s="11"/>
+      <c r="K29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="N29" s="10" t="s">
+      <c r="L29" s="11"/>
+      <c r="N29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1737,10 +1737,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="11"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1770,10 +1770,10 @@
       <c r="M36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="9"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1844,10 +1844,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -1856,14 +1856,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="N42" s="8" t="s">
+      <c r="I42" s="11"/>
+      <c r="N42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O42" s="8"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -1935,6 +1935,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -1945,13 +1952,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>Users</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>ServicesofPlans(bỏ)</t>
+  </si>
+  <si>
+    <t>AlbumFolders</t>
+  </si>
+  <si>
+    <t>id_folder</t>
+  </si>
+  <si>
+    <t>main_image</t>
   </si>
 </sst>
 </file>
@@ -700,16 +709,16 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,9 +740,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -748,8 +757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="2867025"/>
-          <a:ext cx="1047750" cy="2466975"/>
+          <a:off x="7458075" y="3067050"/>
+          <a:ext cx="790575" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -825,13 +834,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -842,8 +851,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7248525" y="2857500"/>
-          <a:ext cx="28575" cy="2466975"/>
+          <a:off x="6705601" y="3086100"/>
+          <a:ext cx="19049" cy="2238375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1034,6 +1043,53 @@
         <a:xfrm flipH="1">
           <a:off x="5534025" y="2038350"/>
           <a:ext cx="590550" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2676525" y="2914650"/>
+          <a:ext cx="3457575" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1352,7 +1408,7 @@
   <dimension ref="D4:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,30 +1425,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="E8" s="9"/>
+      <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1534,19 +1590,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" t="s">
         <v>59</v>
       </c>
@@ -1558,6 +1626,12 @@
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
@@ -1569,12 +1643,24 @@
       </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="F22" s="11" t="s">
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1583,6 +1669,12 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1591,6 +1683,12 @@
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1607,22 +1705,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11" t="s">
+      <c r="F29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="K29" s="11" t="s">
+      <c r="I29" s="8"/>
+      <c r="K29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="N29" s="9" t="s">
+      <c r="L29" s="8"/>
+      <c r="N29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="10"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1737,10 +1835,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="8"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1770,10 +1868,10 @@
       <c r="M36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1844,10 +1942,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -1856,14 +1954,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="N42" s="11" t="s">
+      <c r="I42" s="8"/>
+      <c r="N42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O42" s="11"/>
+      <c r="O42" s="8"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -1934,14 +2032,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
+  <mergeCells count="18">
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -1952,6 +2043,14 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>Users</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>main_image</t>
+  </si>
+  <si>
+    <t>bỏ</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -709,18 +712,19 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,30 +1429,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="10"/>
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="L8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1529,11 +1533,14 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>6</v>
@@ -1599,22 +1606,22 @@
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" t="s">
         <v>59</v>
       </c>
@@ -1649,10 +1656,10 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
@@ -1705,22 +1712,22 @@
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="H29" s="8" t="s">
+      <c r="F29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="K29" s="8" t="s">
+      <c r="I29" s="11"/>
+      <c r="K29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="N29" s="10" t="s">
+      <c r="L29" s="11"/>
+      <c r="N29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -1835,10 +1842,10 @@
       <c r="F35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="11"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1868,10 +1875,10 @@
       <c r="M36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="9"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -1942,10 +1949,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -1954,14 +1961,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="N42" s="8" t="s">
+      <c r="I42" s="11"/>
+      <c r="N42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O42" s="8"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -2033,6 +2040,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -2044,13 +2058,6 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -358,6 +358,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="N39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quang Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu là 0: plans
+Nếu là 1:accessories
+Gom bảng Plans vào accessories</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E41" authorId="0">
       <text>
         <r>
@@ -387,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>Users</t>
   </si>
@@ -449,9 +475,6 @@
     <t>images</t>
   </si>
   <si>
-    <t>Plans</t>
-  </si>
-  <si>
     <t>Shots</t>
   </si>
   <si>
@@ -557,9 +580,6 @@
     <t>allow null</t>
   </si>
   <si>
-    <t>AccessoriesofPlans</t>
-  </si>
-  <si>
     <t>has_accessory</t>
   </si>
   <si>
@@ -588,6 +608,18 @@
   </si>
   <si>
     <t>bỏ</t>
+  </si>
+  <si>
+    <t>AccessoriesofAlbums</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>AccessoriesofPlans(bỏ)</t>
+  </si>
+  <si>
+    <t>Plans(bỏ)</t>
   </si>
 </sst>
 </file>
@@ -712,19 +744,19 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,53 +773,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458075" y="3067050"/>
-          <a:ext cx="790575" cy="2266950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -884,149 +869,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="5457825"/>
-          <a:ext cx="695325" cy="2466975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11610975" y="6753225"/>
-          <a:ext cx="85725" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933451</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180978</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2376489" y="5329240"/>
-          <a:ext cx="2724147" cy="1952624"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 93357"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -1094,6 +936,673 @@
         <a:xfrm flipH="1">
           <a:off x="2676525" y="2914650"/>
           <a:ext cx="3457575" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="2600325"/>
+          <a:ext cx="3600450" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Curved Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4357687" y="5938838"/>
+          <a:ext cx="2667000" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Freeform 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="4267200"/>
+          <a:ext cx="1133475" cy="2715769"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 19050 w 1133475"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2715769"/>
+            <a:gd name="connsiteX1" fmla="*/ 200025 w 1133475"/>
+            <a:gd name="connsiteY1" fmla="*/ 19050 h 2715769"/>
+            <a:gd name="connsiteX2" fmla="*/ 323850 w 1133475"/>
+            <a:gd name="connsiteY2" fmla="*/ 57150 h 2715769"/>
+            <a:gd name="connsiteX3" fmla="*/ 381000 w 1133475"/>
+            <a:gd name="connsiteY3" fmla="*/ 66675 h 2715769"/>
+            <a:gd name="connsiteX4" fmla="*/ 495300 w 1133475"/>
+            <a:gd name="connsiteY4" fmla="*/ 95250 h 2715769"/>
+            <a:gd name="connsiteX5" fmla="*/ 542925 w 1133475"/>
+            <a:gd name="connsiteY5" fmla="*/ 104775 h 2715769"/>
+            <a:gd name="connsiteX6" fmla="*/ 628650 w 1133475"/>
+            <a:gd name="connsiteY6" fmla="*/ 142875 h 2715769"/>
+            <a:gd name="connsiteX7" fmla="*/ 666750 w 1133475"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 2715769"/>
+            <a:gd name="connsiteX8" fmla="*/ 762000 w 1133475"/>
+            <a:gd name="connsiteY8" fmla="*/ 238125 h 2715769"/>
+            <a:gd name="connsiteX9" fmla="*/ 781050 w 1133475"/>
+            <a:gd name="connsiteY9" fmla="*/ 266700 h 2715769"/>
+            <a:gd name="connsiteX10" fmla="*/ 838200 w 1133475"/>
+            <a:gd name="connsiteY10" fmla="*/ 333375 h 2715769"/>
+            <a:gd name="connsiteX11" fmla="*/ 895350 w 1133475"/>
+            <a:gd name="connsiteY11" fmla="*/ 438150 h 2715769"/>
+            <a:gd name="connsiteX12" fmla="*/ 933450 w 1133475"/>
+            <a:gd name="connsiteY12" fmla="*/ 514350 h 2715769"/>
+            <a:gd name="connsiteX13" fmla="*/ 952500 w 1133475"/>
+            <a:gd name="connsiteY13" fmla="*/ 561975 h 2715769"/>
+            <a:gd name="connsiteX14" fmla="*/ 971550 w 1133475"/>
+            <a:gd name="connsiteY14" fmla="*/ 619125 h 2715769"/>
+            <a:gd name="connsiteX15" fmla="*/ 981075 w 1133475"/>
+            <a:gd name="connsiteY15" fmla="*/ 666750 h 2715769"/>
+            <a:gd name="connsiteX16" fmla="*/ 1000125 w 1133475"/>
+            <a:gd name="connsiteY16" fmla="*/ 704850 h 2715769"/>
+            <a:gd name="connsiteX17" fmla="*/ 1028700 w 1133475"/>
+            <a:gd name="connsiteY17" fmla="*/ 771525 h 2715769"/>
+            <a:gd name="connsiteX18" fmla="*/ 1038225 w 1133475"/>
+            <a:gd name="connsiteY18" fmla="*/ 809625 h 2715769"/>
+            <a:gd name="connsiteX19" fmla="*/ 1057275 w 1133475"/>
+            <a:gd name="connsiteY19" fmla="*/ 857250 h 2715769"/>
+            <a:gd name="connsiteX20" fmla="*/ 1085850 w 1133475"/>
+            <a:gd name="connsiteY20" fmla="*/ 942975 h 2715769"/>
+            <a:gd name="connsiteX21" fmla="*/ 1104900 w 1133475"/>
+            <a:gd name="connsiteY21" fmla="*/ 1095375 h 2715769"/>
+            <a:gd name="connsiteX22" fmla="*/ 1114425 w 1133475"/>
+            <a:gd name="connsiteY22" fmla="*/ 1171575 h 2715769"/>
+            <a:gd name="connsiteX23" fmla="*/ 1133475 w 1133475"/>
+            <a:gd name="connsiteY23" fmla="*/ 1295400 h 2715769"/>
+            <a:gd name="connsiteX24" fmla="*/ 1123950 w 1133475"/>
+            <a:gd name="connsiteY24" fmla="*/ 1781175 h 2715769"/>
+            <a:gd name="connsiteX25" fmla="*/ 1114425 w 1133475"/>
+            <a:gd name="connsiteY25" fmla="*/ 1866900 h 2715769"/>
+            <a:gd name="connsiteX26" fmla="*/ 1104900 w 1133475"/>
+            <a:gd name="connsiteY26" fmla="*/ 1895475 h 2715769"/>
+            <a:gd name="connsiteX27" fmla="*/ 1066800 w 1133475"/>
+            <a:gd name="connsiteY27" fmla="*/ 2085975 h 2715769"/>
+            <a:gd name="connsiteX28" fmla="*/ 1038225 w 1133475"/>
+            <a:gd name="connsiteY28" fmla="*/ 2181225 h 2715769"/>
+            <a:gd name="connsiteX29" fmla="*/ 1028700 w 1133475"/>
+            <a:gd name="connsiteY29" fmla="*/ 2219325 h 2715769"/>
+            <a:gd name="connsiteX30" fmla="*/ 1000125 w 1133475"/>
+            <a:gd name="connsiteY30" fmla="*/ 2257425 h 2715769"/>
+            <a:gd name="connsiteX31" fmla="*/ 962025 w 1133475"/>
+            <a:gd name="connsiteY31" fmla="*/ 2343150 h 2715769"/>
+            <a:gd name="connsiteX32" fmla="*/ 952500 w 1133475"/>
+            <a:gd name="connsiteY32" fmla="*/ 2371725 h 2715769"/>
+            <a:gd name="connsiteX33" fmla="*/ 895350 w 1133475"/>
+            <a:gd name="connsiteY33" fmla="*/ 2457450 h 2715769"/>
+            <a:gd name="connsiteX34" fmla="*/ 895350 w 1133475"/>
+            <a:gd name="connsiteY34" fmla="*/ 2457450 h 2715769"/>
+            <a:gd name="connsiteX35" fmla="*/ 771525 w 1133475"/>
+            <a:gd name="connsiteY35" fmla="*/ 2600325 h 2715769"/>
+            <a:gd name="connsiteX36" fmla="*/ 666750 w 1133475"/>
+            <a:gd name="connsiteY36" fmla="*/ 2667000 h 2715769"/>
+            <a:gd name="connsiteX37" fmla="*/ 609600 w 1133475"/>
+            <a:gd name="connsiteY37" fmla="*/ 2686050 h 2715769"/>
+            <a:gd name="connsiteX38" fmla="*/ 200025 w 1133475"/>
+            <a:gd name="connsiteY38" fmla="*/ 2695575 h 2715769"/>
+            <a:gd name="connsiteX39" fmla="*/ 152400 w 1133475"/>
+            <a:gd name="connsiteY39" fmla="*/ 2705100 h 2715769"/>
+            <a:gd name="connsiteX40" fmla="*/ 123825 w 1133475"/>
+            <a:gd name="connsiteY40" fmla="*/ 2714625 h 2715769"/>
+            <a:gd name="connsiteX41" fmla="*/ 0 w 1133475"/>
+            <a:gd name="connsiteY41" fmla="*/ 2714625 h 2715769"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1133475" h="2715769">
+              <a:moveTo>
+                <a:pt x="19050" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="44770" y="2338"/>
+                <a:pt x="165338" y="12113"/>
+                <a:pt x="200025" y="19050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="290318" y="37109"/>
+                <a:pt x="241027" y="36444"/>
+                <a:pt x="323850" y="57150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="342586" y="61834"/>
+                <a:pt x="362147" y="62485"/>
+                <a:pt x="381000" y="66675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="419337" y="75194"/>
+                <a:pt x="457200" y="85725"/>
+                <a:pt x="495300" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="511006" y="99177"/>
+                <a:pt x="527418" y="100123"/>
+                <a:pt x="542925" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="629811" y="130841"/>
+                <a:pt x="553601" y="114732"/>
+                <a:pt x="628650" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="640907" y="147472"/>
+                <a:pt x="654050" y="149225"/>
+                <a:pt x="666750" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721477" y="188885"/>
+                <a:pt x="687230" y="163355"/>
+                <a:pt x="762000" y="238125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="770095" y="246220"/>
+                <a:pt x="773721" y="257906"/>
+                <a:pt x="781050" y="266700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="850282" y="349779"/>
+                <a:pt x="766857" y="233494"/>
+                <a:pt x="838200" y="333375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="867202" y="373978"/>
+                <a:pt x="866519" y="380489"/>
+                <a:pt x="895350" y="438150"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="933450" y="514350"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="941096" y="529643"/>
+                <a:pt x="946657" y="545907"/>
+                <a:pt x="952500" y="561975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="959362" y="580846"/>
+                <a:pt x="967612" y="599434"/>
+                <a:pt x="971550" y="619125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="974725" y="635000"/>
+                <a:pt x="975955" y="651391"/>
+                <a:pt x="981075" y="666750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="985565" y="680220"/>
+                <a:pt x="994249" y="691924"/>
+                <a:pt x="1000125" y="704850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1010131" y="726863"/>
+                <a:pt x="1020437" y="748801"/>
+                <a:pt x="1028700" y="771525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1033174" y="783828"/>
+                <a:pt x="1034085" y="797206"/>
+                <a:pt x="1038225" y="809625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1043632" y="825845"/>
+                <a:pt x="1051868" y="841030"/>
+                <a:pt x="1057275" y="857250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1098291" y="980297"/>
+                <a:pt x="1026225" y="793912"/>
+                <a:pt x="1085850" y="942975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1108684" y="1194153"/>
+                <a:pt x="1083030" y="953219"/>
+                <a:pt x="1104900" y="1095375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1108792" y="1120675"/>
+                <a:pt x="1111042" y="1146202"/>
+                <a:pt x="1114425" y="1171575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1122596" y="1232856"/>
+                <a:pt x="1123774" y="1237191"/>
+                <a:pt x="1133475" y="1295400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1130300" y="1457325"/>
+                <a:pt x="1129346" y="1619309"/>
+                <a:pt x="1123950" y="1781175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1122992" y="1809910"/>
+                <a:pt x="1119152" y="1838540"/>
+                <a:pt x="1114425" y="1866900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1112774" y="1876804"/>
+                <a:pt x="1108075" y="1885950"/>
+                <a:pt x="1104900" y="1895475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1090504" y="2010644"/>
+                <a:pt x="1101583" y="1946842"/>
+                <a:pt x="1066800" y="2085975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1052405" y="2143556"/>
+                <a:pt x="1061415" y="2111656"/>
+                <a:pt x="1038225" y="2181225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1034085" y="2193644"/>
+                <a:pt x="1034554" y="2207616"/>
+                <a:pt x="1028700" y="2219325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1021600" y="2233524"/>
+                <a:pt x="1009650" y="2244725"/>
+                <a:pt x="1000125" y="2257425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="982481" y="2345647"/>
+                <a:pt x="1005222" y="2267554"/>
+                <a:pt x="962025" y="2343150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="957044" y="2351867"/>
+                <a:pt x="957559" y="2363052"/>
+                <a:pt x="952500" y="2371725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="935196" y="2401390"/>
+                <a:pt x="914400" y="2428875"/>
+                <a:pt x="895350" y="2457450"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="895350" y="2457450"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="812135" y="2564441"/>
+                <a:pt x="854273" y="2517577"/>
+                <a:pt x="771525" y="2600325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="733334" y="2638516"/>
+                <a:pt x="732936" y="2644938"/>
+                <a:pt x="666750" y="2667000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="647700" y="2673350"/>
+                <a:pt x="629675" y="2685583"/>
+                <a:pt x="609600" y="2686050"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="200025" y="2695575"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="184150" y="2698750"/>
+                <a:pt x="168106" y="2701173"/>
+                <a:pt x="152400" y="2705100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="142660" y="2707535"/>
+                <a:pt x="133846" y="2713999"/>
+                <a:pt x="123825" y="2714625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="82630" y="2717200"/>
+                <a:pt x="41275" y="2714625"/>
+                <a:pt x="0" y="2714625"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9372600" y="1895475"/>
+          <a:ext cx="952500" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="2962275"/>
+          <a:ext cx="1123950" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1409,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:O46"/>
+  <dimension ref="D4:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,30 +1938,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="G4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="N8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="11"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -1474,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>8</v>
@@ -1539,8 +2048,8 @@
       <c r="I12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>66</v>
+      <c r="J12" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>6</v>
@@ -1599,31 +2108,31 @@
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="9" t="s">
-        <v>35</v>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="K19" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
-        <v>63</v>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -1632,50 +2141,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="N22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1688,8 +2213,14 @@
       <c r="G24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1697,13 +2228,22 @@
         <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1711,27 +2251,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11" t="s">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="H29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="K29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="N29" s="9" t="s">
-        <v>58</v>
+      <c r="I29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="N29" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -1743,24 +2283,24 @@
         <v>8</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>17</v>
@@ -1769,36 +2309,36 @@
         <v>8</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
@@ -1809,27 +2349,27 @@
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>8</v>
@@ -1837,15 +2377,15 @@
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1855,37 +2395,37 @@
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>2</v>
@@ -1894,16 +2434,16 @@
         <v>9</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>8</v>
@@ -1911,13 +2451,13 @@
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>9</v>
@@ -1936,10 +2476,16 @@
       <c r="I39" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>7</v>
@@ -1950,25 +2496,25 @@
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E41" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="N42" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O42" s="11"/>
+      <c r="H42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="N42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="9"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -1978,13 +2524,13 @@
         <v>9</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>8</v>
@@ -1992,19 +2538,19 @@
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>8</v>
@@ -2012,19 +2558,19 @@
     </row>
     <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="5:15" x14ac:dyDescent="0.25">
@@ -2035,18 +2581,11 @@
         <v>9</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
+  <mergeCells count="19">
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -2058,6 +2597,14 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csdl_HaiMocWedding.xlsx
+++ b/csdl_HaiMocWedding.xlsx
@@ -745,16 +745,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1938,30 +1938,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="H8" s="9" t="s">
+      <c r="E8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="12"/>
+      <c r="K8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="L8" s="12"/>
+      <c r="N8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -2115,22 +2115,22 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" t="s">
         <v>57</v>
       </c>
@@ -2157,10 +2157,10 @@
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
@@ -2169,10 +2169,10 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="12"/>
       <c r="N22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2252,22 +2252,22 @@
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="12"/>
+      <c r="H29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="K29" s="9" t="s">
+      <c r="I29" s="12"/>
+      <c r="K29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="N29" s="11" t="s">
+      <c r="L29" s="12"/>
+      <c r="N29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="10"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
@@ -2382,10 +2382,10 @@
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="12"/>
       <c r="K35" s="3" t="s">
         <v>13</v>
       </c>
@@ -2415,10 +2415,10 @@
       <c r="M36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -2495,10 +2495,10 @@
       </c>
     </row>
     <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
@@ -2507,14 +2507,14 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="N42" s="9" t="s">
+      <c r="I42" s="12"/>
+      <c r="N42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O42" s="9"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
@@ -2586,6 +2586,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H35:I35"/>
@@ -2597,14 +2605,6 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
